--- a/Datasets/seqs/9.17.20_emi_novel_mutant_seqs.xlsx
+++ b/Datasets/seqs/9.17.20_emi_novel_mutant_seqs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makow\Documents\GitHub\UniRep\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makow\Documents\GitHub\UniRep\Datasets\seqs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903A082-0324-4C1C-A58E-09D7A2D2D789}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0DF359-4EDE-4B81-B6FD-28C1CCC76996}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,7 +778,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -976,6 +976,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1137,7 +1143,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1149,6 +1155,7 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -14014,10 +14021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E494DD62-6A3A-4EC3-BF1F-31D7E0113320}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="F1:F19 B1:B19"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14025,7 +14032,7 @@
     <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -14044,8 +14051,11 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -14064,8 +14074,11 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -14084,8 +14097,11 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -14104,8 +14120,11 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -14124,8 +14143,11 @@
       <c r="F5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -14144,8 +14166,12 @@
       <c r="F6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="11"/>
+      <c r="J6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -14164,8 +14190,11 @@
       <c r="F7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14184,8 +14213,11 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -14205,7 +14237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -14224,8 +14256,9 @@
       <c r="F10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -14245,7 +14278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -14265,7 +14298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -14285,7 +14318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -14305,7 +14338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -14325,7 +14358,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -14345,7 +14378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -14364,8 +14397,9 @@
       <c r="F17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -14385,7 +14419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
